--- a/src/main/resources/档案接收函.xlsx
+++ b/src/main/resources/档案接收函.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大学课程\毕业设计\code\ssm1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8940328D-BD96-4A2A-90AF-6E60B94829D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FB1C22-EAF8-40C4-96DE-F43DE78ECD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="3165" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="打印调档函页" sheetId="1" r:id="rId1"/>
@@ -385,23 +385,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -494,18 +494,6 @@
         <row r="3">
           <cell r="A3" t="str">
             <v>穗开人接字（2021 ）0648号</v>
-          </cell>
-          <cell r="B3">
-            <v>44363</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>祁玲</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>河北省邯郸市邱县人才交流开发中心：</v>
-          </cell>
-          <cell r="G3">
-            <v>44410</v>
           </cell>
         </row>
       </sheetData>
@@ -843,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -865,21 +853,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="56.25" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" ht="3.75" customHeight="1">
       <c r="A2" s="1"/>
@@ -897,71 +885,62 @@
       <c r="M2" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="24.75" customHeight="1">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1">
-      <c r="H5" s="27" t="str">
+      <c r="H5" s="25" t="str">
         <f>'[1]2021年调入人员明细'!A3</f>
         <v>穗开人接字（2021 ）0648号</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" ht="12" customHeight="1"/>
     <row r="7" spans="1:13" ht="23.25" customHeight="1">
-      <c r="B7" s="28" t="str">
-        <f>'[1]2021年调入人员明细'!F3</f>
-        <v>河北省邯郸市邱县人才交流开发中心：</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:13" ht="9.75" customHeight="1"/>
     <row r="9" spans="1:13" ht="27.95" customHeight="1">
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="str">
-        <f>'[1]2021年调入人员明细'!C3</f>
-        <v>祁玲</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="22" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="23" t="e">
-        <f>'[1]2021年调入人员明细'!F1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
       <c r="L9" s="22" t="s">
         <v>4</v>
       </c>
@@ -993,13 +972,10 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
-      <c r="I11" s="23">
-        <f>'[1]2021年调入人员明细'!G3</f>
-        <v>44410</v>
-      </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1252,10 +1228,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="20">
-        <f>'[1]2021年调入人员明细'!B3</f>
-        <v>44363</v>
-      </c>
+      <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
@@ -1295,10 +1268,7 @@
       <c r="A31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="21" t="str">
-        <f>'[1]2021年调入人员明细'!C3</f>
-        <v>祁玲</v>
-      </c>
+      <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="2"/>
       <c r="E31" s="10" t="s">
